--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.380850111100701</v>
+        <v>4.123204333333334</v>
       </c>
       <c r="H2">
-        <v>8.380850111100701</v>
+        <v>12.369613</v>
       </c>
       <c r="I2">
-        <v>0.8499869804396278</v>
+        <v>0.2909967288544799</v>
       </c>
       <c r="J2">
-        <v>0.8499869804396278</v>
+        <v>0.2909967288544799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.43170609809926</v>
+        <v>5.057757666666666</v>
       </c>
       <c r="N2">
-        <v>3.43170609809926</v>
+        <v>15.173273</v>
       </c>
       <c r="O2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="P2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="Q2">
-        <v>28.76061443352014</v>
+        <v>20.85416832814989</v>
       </c>
       <c r="R2">
-        <v>28.76061443352014</v>
+        <v>187.687514953349</v>
       </c>
       <c r="S2">
-        <v>0.1080064676668476</v>
+        <v>0.05045266685951709</v>
       </c>
       <c r="T2">
-        <v>0.1080064676668476</v>
+        <v>0.0504526668595171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.380850111100701</v>
+        <v>4.123204333333334</v>
       </c>
       <c r="H3">
-        <v>8.380850111100701</v>
+        <v>12.369613</v>
       </c>
       <c r="I3">
-        <v>0.8499869804396278</v>
+        <v>0.2909967288544799</v>
       </c>
       <c r="J3">
-        <v>0.8499869804396278</v>
+        <v>0.2909967288544799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.1117256832495</v>
+        <v>14.247411</v>
       </c>
       <c r="N3">
-        <v>14.1117256832495</v>
+        <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="P3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="Q3">
-        <v>118.2682577602842</v>
+        <v>58.744986773981</v>
       </c>
       <c r="R3">
-        <v>118.2682577602842</v>
+        <v>528.704880965829</v>
       </c>
       <c r="S3">
-        <v>0.4441399117994121</v>
+        <v>0.1421222462932591</v>
       </c>
       <c r="T3">
-        <v>0.4441399117994121</v>
+        <v>0.1421222462932591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.380850111100701</v>
+        <v>4.123204333333334</v>
       </c>
       <c r="H4">
-        <v>8.380850111100701</v>
+        <v>12.369613</v>
       </c>
       <c r="I4">
-        <v>0.8499869804396278</v>
+        <v>0.2909967288544799</v>
       </c>
       <c r="J4">
-        <v>0.8499869804396278</v>
+        <v>0.2909967288544799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.463335193727371</v>
+        <v>9.866548666666667</v>
       </c>
       <c r="N4">
-        <v>9.463335193727371</v>
+        <v>29.599646</v>
       </c>
       <c r="O4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="P4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="Q4">
-        <v>79.31079380973321</v>
+        <v>40.68179621744422</v>
       </c>
       <c r="R4">
-        <v>79.31079380973321</v>
+        <v>366.136165956998</v>
       </c>
       <c r="S4">
-        <v>0.2978406009733682</v>
+        <v>0.09842181570170376</v>
       </c>
       <c r="T4">
-        <v>0.2978406009733682</v>
+        <v>0.09842181570170376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.47912457553036</v>
+        <v>8.433639666666666</v>
       </c>
       <c r="H5">
-        <v>1.47912457553036</v>
+        <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.1500130195603722</v>
+        <v>0.5952073574179045</v>
       </c>
       <c r="J5">
-        <v>0.1500130195603722</v>
+        <v>0.5952073574179045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.43170609809926</v>
+        <v>5.057757666666666</v>
       </c>
       <c r="N5">
-        <v>3.43170609809926</v>
+        <v>15.173273</v>
       </c>
       <c r="O5">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="P5">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="Q5">
-        <v>5.075920825696016</v>
+        <v>42.65530568198744</v>
       </c>
       <c r="R5">
-        <v>5.075920825696016</v>
+        <v>383.897751137887</v>
       </c>
       <c r="S5">
-        <v>0.01906191120524384</v>
+        <v>0.1031963439395094</v>
       </c>
       <c r="T5">
-        <v>0.01906191120524384</v>
+        <v>0.1031963439395094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.47912457553036</v>
+        <v>8.433639666666666</v>
       </c>
       <c r="H6">
-        <v>1.47912457553036</v>
+        <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.1500130195603722</v>
+        <v>0.5952073574179045</v>
       </c>
       <c r="J6">
-        <v>0.1500130195603722</v>
+        <v>0.5952073574179045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.1117256832495</v>
+        <v>14.247411</v>
       </c>
       <c r="N6">
-        <v>14.1117256832495</v>
+        <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="P6">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="Q6">
-        <v>20.87300026123729</v>
+        <v>120.157530556903</v>
       </c>
       <c r="R6">
-        <v>20.87300026123729</v>
+        <v>1081.417775012127</v>
       </c>
       <c r="S6">
-        <v>0.07838563508566529</v>
+        <v>0.2906981359533073</v>
       </c>
       <c r="T6">
-        <v>0.07838563508566529</v>
+        <v>0.2906981359533073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.433639666666666</v>
+      </c>
+      <c r="H7">
+        <v>25.300919</v>
+      </c>
+      <c r="I7">
+        <v>0.5952073574179045</v>
+      </c>
+      <c r="J7">
+        <v>0.5952073574179045</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.866548666666667</v>
+      </c>
+      <c r="N7">
+        <v>29.599646</v>
+      </c>
+      <c r="O7">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="P7">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="Q7">
+        <v>83.21091620829711</v>
+      </c>
+      <c r="R7">
+        <v>748.898245874674</v>
+      </c>
+      <c r="S7">
+        <v>0.2013128775250879</v>
+      </c>
+      <c r="T7">
+        <v>0.2013128775250879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.612402333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.837207</v>
+      </c>
+      <c r="I8">
+        <v>0.1137959137276156</v>
+      </c>
+      <c r="J8">
+        <v>0.1137959137276156</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.057757666666666</v>
+      </c>
+      <c r="N8">
+        <v>15.173273</v>
+      </c>
+      <c r="O8">
+        <v>0.173378811020062</v>
+      </c>
+      <c r="P8">
+        <v>0.173378811020062</v>
+      </c>
+      <c r="Q8">
+        <v>8.155140263167889</v>
+      </c>
+      <c r="R8">
+        <v>73.396262368511</v>
+      </c>
+      <c r="S8">
+        <v>0.01972980022103554</v>
+      </c>
+      <c r="T8">
+        <v>0.01972980022103554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.47912457553036</v>
-      </c>
-      <c r="H7">
-        <v>1.47912457553036</v>
-      </c>
-      <c r="I7">
-        <v>0.1500130195603722</v>
-      </c>
-      <c r="J7">
-        <v>0.1500130195603722</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.463335193727371</v>
-      </c>
-      <c r="N7">
-        <v>9.463335193727371</v>
-      </c>
-      <c r="O7">
-        <v>0.3504060742428313</v>
-      </c>
-      <c r="P7">
-        <v>0.3504060742428313</v>
-      </c>
-      <c r="Q7">
-        <v>13.99745165152351</v>
-      </c>
-      <c r="R7">
-        <v>13.99745165152351</v>
-      </c>
-      <c r="S7">
-        <v>0.05256547326946309</v>
-      </c>
-      <c r="T7">
-        <v>0.05256547326946309</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.612402333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.837207</v>
+      </c>
+      <c r="I9">
+        <v>0.1137959137276156</v>
+      </c>
+      <c r="J9">
+        <v>0.1137959137276156</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.247411</v>
+      </c>
+      <c r="N9">
+        <v>42.742233</v>
+      </c>
+      <c r="O9">
+        <v>0.4883980890531961</v>
+      </c>
+      <c r="P9">
+        <v>0.4883980890531961</v>
+      </c>
+      <c r="Q9">
+        <v>22.972558740359</v>
+      </c>
+      <c r="R9">
+        <v>206.753028663231</v>
+      </c>
+      <c r="S9">
+        <v>0.05557770680662982</v>
+      </c>
+      <c r="T9">
+        <v>0.05557770680662982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.612402333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.837207</v>
+      </c>
+      <c r="I10">
+        <v>0.1137959137276156</v>
+      </c>
+      <c r="J10">
+        <v>0.1137959137276156</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.866548666666667</v>
+      </c>
+      <c r="N10">
+        <v>29.599646</v>
+      </c>
+      <c r="O10">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="P10">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="Q10">
+        <v>15.90884609208022</v>
+      </c>
+      <c r="R10">
+        <v>143.179614828722</v>
+      </c>
+      <c r="S10">
+        <v>0.03848840669995022</v>
+      </c>
+      <c r="T10">
+        <v>0.03848840669995021</v>
       </c>
     </row>
   </sheetData>
